--- a/files/ChinaMPFactors_Dec2019.xlsx
+++ b/files/ChinaMPFactors_Dec2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harrison/Library/CloudStorage/Dropbox/Research Projects/MP Factors China/Factor Generation/Share Factor Online/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hshieh/Library/CloudStorage/Dropbox/Research Projects/MP Factors China/Factor Generation/Share Factor Online/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D415D8E-6900-7041-8E86-72D51DBE33AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5AFD16-EE10-244B-824D-AC4B56262944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" xr2:uid="{EE3CEA1C-96D3-D448-9FB7-EDF06434CFF2}"/>
   </bookViews>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="174">
   <si>
     <r>
       <t xml:space="preserve">This file contains the high-frequency Chinese monetary policy shocks spaning June of 2006 to December of 2019. </t>
@@ -49,6 +48,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>Recommended citation: Shieh, Harrison. (2024). “Can You Hear Me Now? Identifying the Effect of Chinese Monetary Policy Announcements.” Journal of International Money and Finance. Vol. 144.</t>
     </r>
@@ -568,12 +568,18 @@
   </si>
   <si>
     <t>2019-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Errata: Original had an announcement date typo. Original file had 6/21/06 as an announcment date, this is off by 1 month, so the corrected version here is 7/21/06. Factors updated to reflect this. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -586,23 +592,27 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -625,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
@@ -637,6 +647,7 @@
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,7 +985,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="50.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,6 +1026,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="13" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
@@ -1028,12 +1044,12 @@
   <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="1" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1051,1837 +1067,1837 @@
       <c r="A2" s="4">
         <v>38884</v>
       </c>
-      <c r="B2">
-        <v>-6.0383863747119904E-3</v>
-      </c>
-      <c r="C2">
-        <v>1.334099005907774E-2</v>
+      <c r="B2" s="5">
+        <v>-6.0988212935626507E-3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.3572664000093937E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>38889</v>
-      </c>
-      <c r="B3">
-        <v>-3.6154795438051224E-2</v>
-      </c>
-      <c r="C3">
-        <v>4.5889090746641159E-2</v>
+        <v>38919</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-2.3239043075591326E-3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>8.9935325086116791E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>38939</v>
       </c>
-      <c r="B4">
-        <v>-2.4179626256227493E-2</v>
-      </c>
-      <c r="C4">
-        <v>-2.1912474185228348E-2</v>
+      <c r="B4" s="5">
+        <v>-2.467786893248558E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-2.1435882896184921E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>38947</v>
       </c>
-      <c r="B5">
-        <v>1.3681032694876194E-2</v>
-      </c>
-      <c r="C5">
-        <v>-3.8787353783845901E-2</v>
+      <c r="B5" s="5">
+        <v>1.33613096550107E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-3.8949258625507355E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>39024</v>
       </c>
-      <c r="B6">
-        <v>-7.4386904016137123E-3</v>
-      </c>
-      <c r="C6">
-        <v>1.0323463007807732E-2</v>
+      <c r="B6" s="5">
+        <v>-7.4689183384180069E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.0496152564883232E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>39035</v>
       </c>
-      <c r="B7">
-        <v>6.5387651324272156E-2</v>
-      </c>
-      <c r="C7">
-        <v>-3.0107127502560616E-2</v>
+      <c r="B7" s="5">
+        <v>6.489388644695282E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-3.021726943552494E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>39087</v>
       </c>
-      <c r="B8">
-        <v>5.8885112404823303E-2</v>
-      </c>
-      <c r="C8">
-        <v>-7.0620500482618809E-3</v>
+      <c r="B8" s="5">
+        <v>5.8718010783195496E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-7.2975638322532177E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>39122</v>
       </c>
-      <c r="B9">
-        <v>6.9297485053539276E-2</v>
-      </c>
-      <c r="C9">
-        <v>-2.884424664080143E-2</v>
+      <c r="B9" s="5">
+        <v>6.8905651569366455E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>-2.9076982289552689E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>39158</v>
       </c>
-      <c r="B10">
-        <v>-1.1883676052093506E-2</v>
-      </c>
-      <c r="C10">
-        <v>3.668629378080368E-2</v>
+      <c r="B10" s="5">
+        <v>-1.1971206404268742E-2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3.7246581166982651E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>39177</v>
       </c>
-      <c r="B11">
-        <v>6.5665140748023987E-2</v>
-      </c>
-      <c r="C11">
-        <v>-1.2541970238089561E-2</v>
+      <c r="B11" s="5">
+        <v>6.512720137834549E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-1.2391576543450356E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>39201</v>
       </c>
-      <c r="B12">
-        <v>1.6412056982517242E-2</v>
-      </c>
-      <c r="C12">
-        <v>-4.2967516928911209E-2</v>
+      <c r="B12" s="5">
+        <v>1.5766065567731857E-2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>-4.284493625164032E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>39212</v>
       </c>
-      <c r="B13">
-        <v>5.0400663167238235E-2</v>
-      </c>
-      <c r="C13">
-        <v>-2.1070001646876335E-2</v>
+      <c r="B13" s="5">
+        <v>5.0015527755022049E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-2.1143261343240738E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>39220</v>
       </c>
-      <c r="B14">
-        <v>1.5445327386260033E-2</v>
-      </c>
-      <c r="C14">
-        <v>0.10911716520786285</v>
+      <c r="B14" s="5">
+        <v>1.5599940903484821E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.11008401215076447</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>39283</v>
       </c>
-      <c r="B15">
-        <v>6.3974605873227119E-3</v>
-      </c>
-      <c r="C15">
-        <v>-7.7370216604322195E-4</v>
+      <c r="B15" s="5">
+        <v>6.1500826850533485E-3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>-5.4421462118625641E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>39293</v>
       </c>
-      <c r="B16">
-        <v>8.860556036233902E-2</v>
-      </c>
-      <c r="C16">
-        <v>-9.307243674993515E-2</v>
+      <c r="B16" s="5">
+        <v>8.7325103580951691E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>-9.3055561184883118E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>39302</v>
       </c>
-      <c r="B17">
-        <v>9.4414465129375458E-2</v>
-      </c>
-      <c r="C17">
-        <v>-9.2910118401050568E-2</v>
+      <c r="B17" s="5">
+        <v>9.3534909188747406E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>-9.3483023345470428E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>39315</v>
       </c>
-      <c r="B18">
-        <v>-1.2538354843854904E-2</v>
-      </c>
-      <c r="C18">
-        <v>-2.7577785775065422E-2</v>
+      <c r="B18" s="5">
+        <v>-1.3056863099336624E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>-2.7238566428422928E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>39331</v>
       </c>
-      <c r="B19">
-        <v>-2.0477470010519028E-2</v>
-      </c>
-      <c r="C19">
-        <v>1.7414350062608719E-2</v>
+      <c r="B19" s="5">
+        <v>-2.0058000460267067E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.7249181866645813E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>39339</v>
       </c>
-      <c r="B20">
-        <v>0.21109403669834137</v>
-      </c>
-      <c r="C20">
-        <v>-0.104249507188797</v>
+      <c r="B20" s="5">
+        <v>0.20957311987876892</v>
+      </c>
+      <c r="C20" s="5">
+        <v>-0.10478701442480087</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>39368</v>
       </c>
-      <c r="B21">
-        <v>8.6669716984033585E-3</v>
-      </c>
-      <c r="C21">
-        <v>9.210561215877533E-2</v>
+      <c r="B21" s="5">
+        <v>9.7158458083868027E-3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>9.1750867664813995E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>39394</v>
       </c>
-      <c r="B22">
-        <v>-0.15047283470630646</v>
-      </c>
-      <c r="C22">
-        <v>2.4535715579986572E-2</v>
+      <c r="B22" s="5">
+        <v>-0.1507812887430191</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.598222903907299E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>39396</v>
       </c>
-      <c r="B23">
-        <v>-0.2642425000667572</v>
-      </c>
-      <c r="C23">
-        <v>0.11750049889087677</v>
+      <c r="B23" s="5">
+        <v>-0.26335468888282776</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.11922203004360199</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>39424</v>
       </c>
-      <c r="B24">
-        <v>-2.0850168541073799E-2</v>
-      </c>
-      <c r="C24">
-        <v>5.7531822472810745E-2</v>
+      <c r="B24" s="5">
+        <v>-2.0855912938714027E-2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>5.8275997638702393E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>39436</v>
       </c>
-      <c r="B25">
-        <v>-7.7018621377646923E-3</v>
-      </c>
-      <c r="C25">
-        <v>5.062415823340416E-2</v>
+      <c r="B25" s="5">
+        <v>-8.0150505527853966E-3</v>
+      </c>
+      <c r="C25" s="5">
+        <v>5.1611542701721191E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>39463</v>
       </c>
-      <c r="B26">
-        <v>-0.10984466224908829</v>
-      </c>
-      <c r="C26">
-        <v>4.302404448390007E-2</v>
+      <c r="B26" s="5">
+        <v>-0.11000502854585648</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4.4276926666498184E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>39500</v>
       </c>
-      <c r="B27">
-        <v>4.5005027204751968E-3</v>
-      </c>
-      <c r="C27">
-        <v>6.013023853302002E-2</v>
+      <c r="B27" s="5">
+        <v>4.3003777973353863E-3</v>
+      </c>
+      <c r="C27" s="5">
+        <v>6.0986015945672989E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>39525</v>
       </c>
-      <c r="B28">
-        <v>-0.3163311779499054</v>
-      </c>
-      <c r="C28">
-        <v>0.15351098775863647</v>
+      <c r="B28" s="5">
+        <v>-0.31635084748268127</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.15733566880226135</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>39554</v>
       </c>
-      <c r="B29">
-        <v>-4.4229742139577866E-2</v>
-      </c>
-      <c r="C29">
-        <v>1.1799820698797703E-2</v>
+      <c r="B29" s="5">
+        <v>-4.4327914714813232E-2</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1.2255746871232986E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>39582</v>
       </c>
-      <c r="B30">
-        <v>1.6122085973620415E-2</v>
-      </c>
-      <c r="C30">
-        <v>0.1242060661315918</v>
+      <c r="B30" s="5">
+        <v>1.5824716538190842E-2</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.12584692239761353</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>39606</v>
       </c>
-      <c r="B31">
-        <v>0.4301399290561676</v>
-      </c>
-      <c r="C31">
-        <v>0.18824467062950134</v>
+      <c r="B31" s="5">
+        <v>0.43022775650024414</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.18794246017932892</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>39675</v>
       </c>
-      <c r="B32">
-        <v>-1.9626334309577942E-2</v>
-      </c>
-      <c r="C32">
-        <v>4.3194059282541275E-2</v>
+      <c r="B32" s="5">
+        <v>-1.9801478832960129E-2</v>
+      </c>
+      <c r="C32" s="5">
+        <v>4.3983645737171173E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>39706</v>
       </c>
-      <c r="B33">
-        <v>-0.12735876441001892</v>
-      </c>
-      <c r="C33">
-        <v>-0.16562718152999878</v>
+      <c r="B33" s="5">
+        <v>-0.12781141698360443</v>
+      </c>
+      <c r="C33" s="5">
+        <v>-0.16629338264465332</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>39729</v>
       </c>
-      <c r="B34">
-        <v>-0.11024384945631027</v>
-      </c>
-      <c r="C34">
-        <v>-0.20289359986782074</v>
+      <c r="B34" s="5">
+        <v>-0.11124684661626816</v>
+      </c>
+      <c r="C34" s="5">
+        <v>-0.20344887673854828</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>39750</v>
       </c>
-      <c r="B35">
-        <v>-7.6602235436439514E-2</v>
-      </c>
-      <c r="C35">
-        <v>-7.6342150568962097E-2</v>
+      <c r="B35" s="5">
+        <v>-7.6138980686664581E-2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>-7.7299639582633972E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>39769</v>
       </c>
-      <c r="B36">
-        <v>-8.9770279824733734E-2</v>
-      </c>
-      <c r="C36">
-        <v>-2.541009709239006E-2</v>
+      <c r="B36" s="5">
+        <v>-8.8163837790489197E-2</v>
+      </c>
+      <c r="C36" s="5">
+        <v>-2.7087708935141563E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39778</v>
       </c>
-      <c r="B37">
-        <v>0.18115392327308655</v>
-      </c>
-      <c r="C37">
-        <v>-0.156743124127388</v>
+      <c r="B37" s="5">
+        <v>0.17929267883300781</v>
+      </c>
+      <c r="C37" s="5">
+        <v>-0.15743438899517059</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>39804</v>
       </c>
-      <c r="B38">
-        <v>-5.0930168479681015E-2</v>
-      </c>
-      <c r="C38">
-        <v>1.2037633918225765E-2</v>
+      <c r="B38" s="5">
+        <v>-5.1094476133584976E-2</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1.2673390097916126E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39867</v>
       </c>
-      <c r="B39">
-        <v>-3.5663161426782608E-2</v>
-      </c>
-      <c r="C39">
-        <v>6.8928999826312065E-3</v>
+      <c r="B39" s="5">
+        <v>-3.5961601883172989E-2</v>
+      </c>
+      <c r="C39" s="5">
+        <v>7.5026531703770161E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39939</v>
       </c>
-      <c r="B40">
-        <v>-2.4881608784198761E-2</v>
-      </c>
-      <c r="C40">
-        <v>8.7634231895208359E-3</v>
+      <c r="B40" s="5">
+        <v>-2.4856287986040115E-2</v>
+      </c>
+      <c r="C40" s="5">
+        <v>8.9404992759227753E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40030</v>
       </c>
-      <c r="B41">
-        <v>9.8634958267211914E-3</v>
-      </c>
-      <c r="C41">
-        <v>-9.4457538798451424E-3</v>
+      <c r="B41" s="5">
+        <v>9.5187891274690628E-3</v>
+      </c>
+      <c r="C41" s="5">
+        <v>-9.2058731243014336E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>40128</v>
       </c>
-      <c r="B42">
-        <v>3.9109636098146439E-2</v>
-      </c>
-      <c r="C42">
-        <v>-4.3055415153503418E-2</v>
+      <c r="B42" s="5">
+        <v>3.8561228662729263E-2</v>
+      </c>
+      <c r="C42" s="5">
+        <v>-4.3107431381940842E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>40190</v>
       </c>
-      <c r="B43">
-        <v>-8.0394014716148376E-2</v>
-      </c>
-      <c r="C43">
-        <v>-5.2774581126868725E-3</v>
+      <c r="B43" s="5">
+        <v>-8.0616407096385956E-2</v>
+      </c>
+      <c r="C43" s="5">
+        <v>-4.6627740375697613E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>40220</v>
       </c>
-      <c r="B44">
-        <v>6.7667365074157715E-2</v>
-      </c>
-      <c r="C44">
-        <v>-3.4415788948535919E-2</v>
+      <c r="B44" s="5">
+        <v>6.6881775856018066E-2</v>
+      </c>
+      <c r="C44" s="5">
+        <v>-3.4228678792715073E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>40221</v>
       </c>
-      <c r="B45">
-        <v>-1.1070330627262592E-2</v>
-      </c>
-      <c r="C45">
-        <v>8.4007987752556801E-3</v>
+      <c r="B45" s="5">
+        <v>-1.110958494246006E-2</v>
+      </c>
+      <c r="C45" s="5">
+        <v>8.5845841094851494E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>40300</v>
       </c>
-      <c r="B46">
-        <v>5.944875068962574E-3</v>
-      </c>
-      <c r="C46">
-        <v>-3.3137206919491291E-3</v>
+      <c r="B46" s="5">
+        <v>5.740821361541748E-3</v>
+      </c>
+      <c r="C46" s="5">
+        <v>-3.1598263885825872E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>40308</v>
       </c>
-      <c r="B47">
-        <v>-6.5242908895015717E-3</v>
-      </c>
-      <c r="C47">
-        <v>4.2526993900537491E-2</v>
+      <c r="B47" s="5">
+        <v>-6.5470244735479355E-3</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4.3069470673799515E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>40348</v>
       </c>
-      <c r="B48">
-        <v>-6.6940127871930599E-3</v>
-      </c>
-      <c r="C48">
-        <v>-6.4639508724212646E-2</v>
+      <c r="B48" s="5">
+        <v>-7.0351194590330124E-3</v>
+      </c>
+      <c r="C48" s="5">
+        <v>-6.4949437975883484E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>40395</v>
       </c>
-      <c r="B49">
-        <v>1.0172272101044655E-2</v>
-      </c>
-      <c r="C49">
-        <v>-1.3735364191234112E-2</v>
+      <c r="B49" s="5">
+        <v>9.8898401483893394E-3</v>
+      </c>
+      <c r="C49" s="5">
+        <v>-1.3634688220918179E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>40470</v>
       </c>
-      <c r="B50">
-        <v>-1.8474364187568426E-3</v>
-      </c>
-      <c r="C50">
-        <v>-2.0813988521695137E-2</v>
+      <c r="B50" s="5">
+        <v>-2.1020416170358658E-3</v>
+      </c>
+      <c r="C50" s="5">
+        <v>-2.074943482875824E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>40484</v>
       </c>
-      <c r="B51">
-        <v>7.6797050423920155E-3</v>
-      </c>
-      <c r="C51">
-        <v>1.5639089047908783E-2</v>
+      <c r="B51" s="5">
+        <v>7.4181216768920422E-3</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1.6070544719696045E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>40492</v>
       </c>
-      <c r="B52">
-        <v>5.783626064658165E-2</v>
-      </c>
-      <c r="C52">
-        <v>2.6433806866407394E-2</v>
+      <c r="B52" s="5">
+        <v>5.7645738124847412E-2</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2.6634881272912025E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>40501</v>
       </c>
-      <c r="B53">
-        <v>7.4494346976280212E-2</v>
-      </c>
-      <c r="C53">
-        <v>0.12173546850681305</v>
+      <c r="B53" s="5">
+        <v>7.4188306927680969E-2</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.12301567941904068</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>40522</v>
       </c>
-      <c r="B54">
-        <v>4.4246171601116657E-3</v>
-      </c>
-      <c r="C54">
-        <v>-4.4201955199241638E-2</v>
+      <c r="B54" s="5">
+        <v>4.2093819938600063E-3</v>
+      </c>
+      <c r="C54" s="5">
+        <v>-4.4509008526802063E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>40537</v>
       </c>
-      <c r="B55">
-        <v>-0.17956164479255676</v>
-      </c>
-      <c r="C55">
-        <v>0.11096006631851196</v>
+      <c r="B55" s="5">
+        <v>-0.17921976745128632</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.11280266940593719</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40557</v>
       </c>
-      <c r="B56">
-        <v>4.1545994579792023E-2</v>
-      </c>
-      <c r="C56">
-        <v>4.3008499778807163E-3</v>
+      <c r="B56" s="5">
+        <v>4.137362539768219E-2</v>
+      </c>
+      <c r="C56" s="5">
+        <v>4.2977356351912022E-3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>40573</v>
       </c>
-      <c r="B57">
-        <v>1.8248504027724266E-2</v>
-      </c>
-      <c r="C57">
-        <v>-3.0177680775523186E-2</v>
+      <c r="B57" s="5">
+        <v>1.8071083351969719E-2</v>
+      </c>
+      <c r="C57" s="5">
+        <v>-3.0437814071774483E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>40582</v>
       </c>
-      <c r="B58">
-        <v>6.8167343735694885E-2</v>
-      </c>
-      <c r="C58">
-        <v>-3.4010954201221466E-2</v>
+      <c r="B58" s="5">
+        <v>6.8084225058555603E-2</v>
+      </c>
+      <c r="C58" s="5">
+        <v>-3.4770138561725616E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>40620</v>
       </c>
-      <c r="B59">
-        <v>4.6637427061796188E-2</v>
-      </c>
-      <c r="C59">
-        <v>0.11382686346769333</v>
+      <c r="B59" s="5">
+        <v>4.752068966627121E-2</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0.11379920691251755</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>40638</v>
       </c>
-      <c r="B60">
-        <v>6.8500461056828499E-3</v>
-      </c>
-      <c r="C60">
-        <v>1.7663161270320415E-3</v>
+      <c r="B60" s="5">
+        <v>6.5593430772423744E-3</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2.0713971462100744E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>40650</v>
       </c>
-      <c r="B61">
-        <v>3.1584169715642929E-2</v>
-      </c>
-      <c r="C61">
-        <v>-1.4201571233570576E-2</v>
+      <c r="B61" s="5">
+        <v>3.139018639922142E-2</v>
+      </c>
+      <c r="C61" s="5">
+        <v>-1.4323865063488483E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>40666</v>
       </c>
-      <c r="B62">
-        <v>7.1884825592860579E-4</v>
-      </c>
-      <c r="C62">
-        <v>-2.3484792560338974E-2</v>
+      <c r="B62" s="5">
+        <v>3.8172717904672027E-4</v>
+      </c>
+      <c r="C62" s="5">
+        <v>-2.3371251299977303E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>40675</v>
       </c>
-      <c r="B63">
-        <v>0.13381870090961456</v>
-      </c>
-      <c r="C63">
-        <v>-9.4450496137142181E-2</v>
+      <c r="B63" s="5">
+        <v>0.13252662122249603</v>
+      </c>
+      <c r="C63" s="5">
+        <v>-9.4664685428142548E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>40708</v>
       </c>
-      <c r="B64">
-        <v>2.5669770315289497E-2</v>
-      </c>
-      <c r="C64">
-        <v>0.11550959199666977</v>
+      <c r="B64" s="5">
+        <v>2.6392960920929909E-2</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0.11579702794551849</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>40730</v>
       </c>
-      <c r="B65">
-        <v>0.10872158408164978</v>
-      </c>
-      <c r="C65">
-        <v>-9.2842252925038338E-3</v>
+      <c r="B65" s="5">
+        <v>0.1082148477435112</v>
+      </c>
+      <c r="C65" s="5">
+        <v>-9.3717677518725395E-3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>40767</v>
       </c>
-      <c r="B66">
-        <v>-8.1334952265024185E-3</v>
-      </c>
-      <c r="C66">
-        <v>4.9555366858839989E-3</v>
+      <c r="B66" s="5">
+        <v>-8.3960499614477158E-3</v>
+      </c>
+      <c r="C66" s="5">
+        <v>5.3521632216870785E-3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>40863</v>
       </c>
-      <c r="B67">
-        <v>9.8819006234407425E-3</v>
-      </c>
-      <c r="C67">
-        <v>5.6499384343624115E-2</v>
+      <c r="B67" s="5">
+        <v>9.8696509376168251E-3</v>
+      </c>
+      <c r="C67" s="5">
+        <v>5.7100880891084671E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>40877</v>
       </c>
-      <c r="B68">
-        <v>-7.178411353379488E-3</v>
-      </c>
-      <c r="C68">
-        <v>-2.0543273538351059E-2</v>
+      <c r="B68" s="5">
+        <v>-7.4840919114649296E-3</v>
+      </c>
+      <c r="C68" s="5">
+        <v>-2.0383389666676521E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>40954</v>
       </c>
-      <c r="B69">
-        <v>7.547624409198761E-3</v>
-      </c>
-      <c r="C69">
-        <v>4.1886858642101288E-2</v>
+      <c r="B69" s="5">
+        <v>7.6215965673327446E-3</v>
+      </c>
+      <c r="C69" s="5">
+        <v>4.2216550558805466E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>40955</v>
       </c>
-      <c r="B70">
-        <v>0.14579342305660248</v>
-      </c>
-      <c r="C70">
-        <v>-4.8759754747152328E-2</v>
+      <c r="B70" s="5">
+        <v>0.14523619413375854</v>
+      </c>
+      <c r="C70" s="5">
+        <v>-4.9463622272014618E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>40957</v>
       </c>
-      <c r="B71">
-        <v>-0.15068413317203522</v>
-      </c>
-      <c r="C71">
-        <v>1.1974373832345009E-2</v>
+      <c r="B71" s="5">
+        <v>-0.15027560293674469</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1.2414566241204739E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>40980</v>
       </c>
-      <c r="B72">
-        <v>-0.1302599161863327</v>
-      </c>
-      <c r="C72">
-        <v>-1.8269961001351476E-3</v>
+      <c r="B72" s="5">
+        <v>-0.13024602830410004</v>
+      </c>
+      <c r="C72" s="5">
+        <v>-1.1782138608396053E-3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>41013</v>
       </c>
-      <c r="B73">
-        <v>-3.2878555357456207E-2</v>
-      </c>
-      <c r="C73">
-        <v>3.6658691242337227E-3</v>
+      <c r="B73" s="5">
+        <v>-3.2966203987598419E-2</v>
+      </c>
+      <c r="C73" s="5">
+        <v>3.9647403173148632E-3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>41041</v>
       </c>
-      <c r="B74">
-        <v>-0.17251114547252655</v>
-      </c>
-      <c r="C74">
-        <v>-5.8679390698671341E-2</v>
+      <c r="B74" s="5">
+        <v>-0.17290076613426208</v>
+      </c>
+      <c r="C74" s="5">
+        <v>-5.7953827083110809E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>41068</v>
       </c>
-      <c r="B75">
-        <v>-9.7153976559638977E-2</v>
-      </c>
-      <c r="C75">
-        <v>-6.8661056458950043E-2</v>
+      <c r="B75" s="5">
+        <v>-9.7505524754524231E-2</v>
+      </c>
+      <c r="C75" s="5">
+        <v>-6.8515531718730927E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>41088</v>
       </c>
-      <c r="B76">
-        <v>-3.8541737943887711E-2</v>
-      </c>
-      <c r="C76">
-        <v>-2.8312712907791138E-2</v>
+      <c r="B76" s="5">
+        <v>-3.865392878651619E-2</v>
+      </c>
+      <c r="C76" s="5">
+        <v>-2.8329826891422272E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>41098</v>
       </c>
-      <c r="B77">
-        <v>-1.2461945414543152E-2</v>
-      </c>
-      <c r="C77">
-        <v>-1.0959185659885406E-2</v>
+      <c r="B77" s="5">
+        <v>-1.262134313583374E-2</v>
+      </c>
+      <c r="C77" s="5">
+        <v>-1.0852565057575703E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>41199</v>
       </c>
-      <c r="B78">
-        <v>8.0780088901519775E-3</v>
-      </c>
-      <c r="C78">
-        <v>1.0047147050499916E-2</v>
+      <c r="B78" s="5">
+        <v>7.9144155606627464E-3</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1.0295598767697811E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>41215</v>
       </c>
-      <c r="B79">
-        <v>3.5344034433364868E-2</v>
-      </c>
-      <c r="C79">
-        <v>7.8147947788238525E-3</v>
+      <c r="B79" s="5">
+        <v>3.508836030960083E-2</v>
+      </c>
+      <c r="C79" s="5">
+        <v>8.0183250829577446E-3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>41282</v>
       </c>
-      <c r="B80">
-        <v>-3.6188021302223206E-2</v>
-      </c>
-      <c r="C80">
-        <v>4.8714992590248585E-3</v>
+      <c r="B80" s="5">
+        <v>-3.630678728222847E-2</v>
+      </c>
+      <c r="C80" s="5">
+        <v>5.2473614923655987E-3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>41403</v>
       </c>
-      <c r="B81">
-        <v>1.6084698960185051E-2</v>
-      </c>
-      <c r="C81">
-        <v>-9.6957869827747345E-3</v>
+      <c r="B81" s="5">
+        <v>1.5819685533642769E-2</v>
+      </c>
+      <c r="C81" s="5">
+        <v>-9.5958961173892021E-3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>41475</v>
       </c>
-      <c r="B82">
-        <v>8.5466139018535614E-2</v>
-      </c>
-      <c r="C82">
-        <v>0.11351404339075089</v>
+      <c r="B82" s="5">
+        <v>8.5622787475585938E-2</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.11414018273353577</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>41488</v>
       </c>
-      <c r="B83">
-        <v>-1.7394516617059708E-2</v>
-      </c>
-      <c r="C83">
-        <v>8.4275752305984497E-3</v>
+      <c r="B83" s="5">
+        <v>-1.7476331442594528E-2</v>
+      </c>
+      <c r="C83" s="5">
+        <v>8.7042981758713722E-3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>41583</v>
       </c>
-      <c r="B84">
-        <v>7.4631394818425179E-3</v>
-      </c>
-      <c r="C84">
-        <v>3.3526886254549026E-2</v>
+      <c r="B84" s="5">
+        <v>7.4459481984376907E-3</v>
+      </c>
+      <c r="C84" s="5">
+        <v>3.3872980624437332E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>41649</v>
       </c>
-      <c r="B85">
-        <v>5.5291704833507538E-2</v>
-      </c>
-      <c r="C85">
-        <v>1.2693775817751884E-2</v>
+      <c r="B85" s="5">
+        <v>5.5075988173484802E-2</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1.2775838375091553E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>41678</v>
       </c>
-      <c r="B86">
-        <v>6.6653378307819366E-2</v>
-      </c>
-      <c r="C86">
-        <v>2.7171695604920387E-2</v>
+      <c r="B86" s="5">
+        <v>6.6577069461345673E-2</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2.7175780385732651E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>41713</v>
       </c>
-      <c r="B87">
-        <v>7.9805813729763031E-2</v>
-      </c>
-      <c r="C87">
-        <v>7.2258777916431427E-2</v>
+      <c r="B87" s="5">
+        <v>7.9950608313083649E-2</v>
+      </c>
+      <c r="C87" s="5">
+        <v>7.2438627481460571E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>41751</v>
       </c>
-      <c r="B88">
-        <v>5.7701981859281659E-4</v>
-      </c>
-      <c r="C88">
-        <v>-1.9118862226605415E-2</v>
+      <c r="B88" s="5">
+        <v>3.6898039979860187E-4</v>
+      </c>
+      <c r="C88" s="5">
+        <v>-1.9116239622235298E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>41765</v>
       </c>
-      <c r="B89">
-        <v>6.3027483411133289E-3</v>
-      </c>
-      <c r="C89">
-        <v>1.0203187353909016E-2</v>
+      <c r="B89" s="5">
+        <v>6.1422381550073624E-3</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1.0454642586410046E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>41799</v>
       </c>
-      <c r="B90">
-        <v>6.0729071497917175E-2</v>
-      </c>
-      <c r="C90">
-        <v>-1.9804989919066429E-2</v>
+      <c r="B90" s="5">
+        <v>6.0289613902568817E-2</v>
+      </c>
+      <c r="C90" s="5">
+        <v>-1.9854228943586349E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>41806</v>
       </c>
-      <c r="B91">
-        <v>-5.5665574967861176E-2</v>
-      </c>
-      <c r="C91">
-        <v>-5.7025253772735596E-2</v>
+      <c r="B91" s="5">
+        <v>-5.6073043495416641E-2</v>
+      </c>
+      <c r="C91" s="5">
+        <v>-5.6898076087236404E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>41821</v>
       </c>
-      <c r="B92">
-        <v>8.8853344321250916E-2</v>
-      </c>
-      <c r="C92">
-        <v>2.5948207825422287E-2</v>
+      <c r="B92" s="5">
+        <v>8.8506013154983521E-2</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2.6141570881009102E-2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>41852</v>
       </c>
-      <c r="B93">
-        <v>-3.4154701977968216E-2</v>
-      </c>
-      <c r="C93">
-        <v>-2.3577107116580009E-2</v>
+      <c r="B93" s="5">
+        <v>-3.4361314028501511E-2</v>
+      </c>
+      <c r="C93" s="5">
+        <v>-2.3437626659870148E-2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>41949</v>
       </c>
-      <c r="B94">
-        <v>2.3108823224902153E-2</v>
-      </c>
-      <c r="C94">
-        <v>-8.3566596731543541E-3</v>
+      <c r="B94" s="5">
+        <v>2.2893363609910011E-2</v>
+      </c>
+      <c r="C94" s="5">
+        <v>-8.341117762029171E-3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>41964</v>
       </c>
-      <c r="B95">
-        <v>1.506020687520504E-2</v>
-      </c>
-      <c r="C95">
-        <v>-1.9843995571136475E-2</v>
+      <c r="B95" s="5">
+        <v>1.4812484383583069E-2</v>
+      </c>
+      <c r="C95" s="5">
+        <v>-1.9851455464959145E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>42040</v>
       </c>
-      <c r="B96">
-        <v>-0.13831585645675659</v>
-      </c>
-      <c r="C96">
-        <v>0.11307481676340103</v>
+      <c r="B96" s="5">
+        <v>-0.13872747123241425</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0.11559136956930161</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>42064</v>
       </c>
-      <c r="B97">
-        <v>7.3374040424823761E-2</v>
-      </c>
-      <c r="C97">
-        <v>-5.2665495313704014E-3</v>
+      <c r="B97" s="5">
+        <v>7.3092617094516754E-2</v>
+      </c>
+      <c r="C97" s="5">
+        <v>-5.4116444662213326E-3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>42114</v>
       </c>
-      <c r="B98">
-        <v>-0.21967998147010803</v>
-      </c>
-      <c r="C98">
-        <v>-9.5166057348251343E-2</v>
+      <c r="B98" s="5">
+        <v>-0.22004684805870056</v>
+      </c>
+      <c r="C98" s="5">
+        <v>-9.4627752900123596E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>42132</v>
       </c>
-      <c r="B99">
-        <v>-8.4590062499046326E-2</v>
-      </c>
-      <c r="C99">
-        <v>-2.7955075725913048E-2</v>
+      <c r="B99" s="5">
+        <v>-8.4824599325656891E-2</v>
+      </c>
+      <c r="C99" s="5">
+        <v>-2.7541991323232651E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>42135</v>
       </c>
-      <c r="B100">
-        <v>-3.0540889129042625E-2</v>
-      </c>
-      <c r="C100">
-        <v>-1.9827112555503845E-2</v>
+      <c r="B100" s="5">
+        <v>-3.0727729201316833E-2</v>
+      </c>
+      <c r="C100" s="5">
+        <v>-1.9684711471199989E-2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>42183</v>
       </c>
-      <c r="B101">
-        <v>-7.6668478548526764E-2</v>
-      </c>
-      <c r="C101">
-        <v>8.8043324649333954E-3</v>
+      <c r="B101" s="5">
+        <v>-7.6620221138000488E-2</v>
+      </c>
+      <c r="C101" s="5">
+        <v>9.2494329437613487E-3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>42223</v>
       </c>
-      <c r="B102">
-        <v>4.5118793845176697E-2</v>
-      </c>
-      <c r="C102">
-        <v>3.4118269104510546E-3</v>
+      <c r="B102" s="5">
+        <v>4.4849690049886703E-2</v>
+      </c>
+      <c r="C102" s="5">
+        <v>3.5017135087400675E-3</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>42227</v>
       </c>
-      <c r="B103">
-        <v>6.6902078688144684E-2</v>
-      </c>
-      <c r="C103">
-        <v>2.2127941250801086E-2</v>
+      <c r="B103" s="5">
+        <v>6.6730901598930359E-2</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2.2195806726813316E-2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>42253</v>
       </c>
-      <c r="B104">
-        <v>2.0477831363677979E-2</v>
-      </c>
-      <c r="C104">
-        <v>4.8766313120722771E-3</v>
+      <c r="B104" s="5">
+        <v>2.0296180620789528E-2</v>
+      </c>
+      <c r="C104" s="5">
+        <v>5.0239861011505127E-3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>42262</v>
       </c>
-      <c r="B105">
-        <v>3.0178012326359749E-2</v>
-      </c>
-      <c r="C105">
-        <v>-1.2905689887702465E-2</v>
+      <c r="B105" s="5">
+        <v>2.9856231063604355E-2</v>
+      </c>
+      <c r="C105" s="5">
+        <v>-1.2852683663368225E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>42301</v>
       </c>
-      <c r="B106">
-        <v>-7.6338142156600952E-2</v>
-      </c>
-      <c r="C106">
-        <v>-4.2905032634735107E-2</v>
+      <c r="B106" s="5">
+        <v>-7.6553814113140106E-2</v>
+      </c>
+      <c r="C106" s="5">
+        <v>-4.2739003896713257E-2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>42315</v>
       </c>
-      <c r="B107">
-        <v>6.7350015044212341E-2</v>
-      </c>
-      <c r="C107">
-        <v>1.575302449055016E-3</v>
+      <c r="B107" s="5">
+        <v>6.7162930965423584E-2</v>
+      </c>
+      <c r="C107" s="5">
+        <v>1.4245313359424472E-3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>42394</v>
       </c>
-      <c r="B108">
-        <v>3.7229251116514206E-2</v>
-      </c>
-      <c r="C108">
-        <v>1.7196008702740073E-3</v>
+      <c r="B108" s="5">
+        <v>3.7024185061454773E-2</v>
+      </c>
+      <c r="C108" s="5">
+        <v>1.7558136023581028E-3</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>42406</v>
       </c>
-      <c r="B109">
-        <v>5.7282987982034683E-3</v>
-      </c>
-      <c r="C109">
-        <v>4.7021149657666683E-3</v>
+      <c r="B109" s="5">
+        <v>5.5857328698039055E-3</v>
+      </c>
+      <c r="C109" s="5">
+        <v>4.8787952400743961E-3</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>42424</v>
       </c>
-      <c r="B110">
-        <v>8.1357993185520172E-3</v>
-      </c>
-      <c r="C110">
-        <v>-5.7611279189586639E-3</v>
+      <c r="B110" s="5">
+        <v>7.9092113301157951E-3</v>
+      </c>
+      <c r="C110" s="5">
+        <v>-5.6227445602416992E-3</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>42425</v>
       </c>
-      <c r="B111">
-        <v>1.2881338596343994E-2</v>
-      </c>
-      <c r="C111">
-        <v>1.1233849450945854E-2</v>
+      <c r="B111" s="5">
+        <v>1.2731465511023998E-2</v>
+      </c>
+      <c r="C111" s="5">
+        <v>1.1456651613116264E-2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>42430</v>
       </c>
-      <c r="B112">
-        <v>4.546569543890655E-4</v>
-      </c>
-      <c r="C112">
-        <v>-6.0514133656397462E-4</v>
+      <c r="B112" s="5">
+        <v>2.399330260232091E-4</v>
+      </c>
+      <c r="C112" s="5">
+        <v>-3.7068157689645886E-4</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>42478</v>
       </c>
-      <c r="B113">
-        <v>7.7878907322883606E-3</v>
-      </c>
-      <c r="C113">
-        <v>2.1508275531232357E-3</v>
+      <c r="B113" s="5">
+        <v>7.6877335086464882E-3</v>
+      </c>
+      <c r="C113" s="5">
+        <v>2.2290158085525036E-3</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>42587</v>
       </c>
-      <c r="B114">
-        <v>-6.1257771449163556E-4</v>
-      </c>
-      <c r="C114">
-        <v>-9.62784793227911E-3</v>
+      <c r="B114" s="5">
+        <v>-8.3079957403242588E-4</v>
+      </c>
+      <c r="C114" s="5">
+        <v>-9.4914315268397331E-3</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>42682</v>
       </c>
-      <c r="B115">
-        <v>7.7846641652286053E-3</v>
-      </c>
-      <c r="C115">
-        <v>5.0692642107605934E-3</v>
+      <c r="B115" s="5">
+        <v>7.6239933259785175E-3</v>
+      </c>
+      <c r="C115" s="5">
+        <v>5.2568865939974785E-3</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>42748</v>
       </c>
-      <c r="B116">
-        <v>1.0255717672407627E-2</v>
-      </c>
-      <c r="C116">
-        <v>3.2126091420650482E-2</v>
+      <c r="B116" s="5">
+        <v>1.0134349577128887E-2</v>
+      </c>
+      <c r="C116" s="5">
+        <v>3.2558966428041458E-2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>42793</v>
       </c>
-      <c r="B117">
-        <v>-2.6280350983142853E-2</v>
-      </c>
-      <c r="C117">
-        <v>-1.4383293688297272E-2</v>
+      <c r="B117" s="5">
+        <v>-2.646193839609623E-2</v>
+      </c>
+      <c r="C117" s="5">
+        <v>-1.4209825545549393E-2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>42872</v>
       </c>
-      <c r="B118">
-        <v>9.591963142156601E-3</v>
-      </c>
-      <c r="C118">
-        <v>-3.0839152634143829E-2</v>
+      <c r="B118" s="5">
+        <v>9.303949773311615E-3</v>
+      </c>
+      <c r="C118" s="5">
+        <v>-3.0923845246434212E-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>42906</v>
       </c>
-      <c r="B119">
-        <v>7.8487331047654152E-3</v>
-      </c>
-      <c r="C119">
-        <v>1.0828694328665733E-2</v>
+      <c r="B119" s="5">
+        <v>7.6819155365228653E-3</v>
+      </c>
+      <c r="C119" s="5">
+        <v>1.1088566854596138E-2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>42958</v>
       </c>
-      <c r="B120">
-        <v>5.5318587692454457E-4</v>
-      </c>
-      <c r="C120">
-        <v>-1.006768736988306E-2</v>
+      <c r="B120" s="5">
+        <v>3.0866582528688014E-4</v>
+      </c>
+      <c r="C120" s="5">
+        <v>-9.907800704240799E-3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>43008</v>
       </c>
-      <c r="B121">
-        <v>6.7988964729011059E-3</v>
-      </c>
-      <c r="C121">
-        <v>2.2115288302302361E-2</v>
+      <c r="B121" s="5">
+        <v>6.8188682198524475E-3</v>
+      </c>
+      <c r="C121" s="5">
+        <v>2.2300085052847862E-2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>43056</v>
       </c>
-      <c r="B122">
-        <v>2.8265596483834088E-4</v>
-      </c>
-      <c r="C122">
-        <v>1.6128772869706154E-2</v>
+      <c r="B122" s="5">
+        <v>1.3118547212798148E-4</v>
+      </c>
+      <c r="C122" s="5">
+        <v>1.647588424384594E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>43096</v>
       </c>
-      <c r="B123">
-        <v>7.5714862905442715E-3</v>
-      </c>
-      <c r="C123">
-        <v>7.9886326566338539E-3</v>
+      <c r="B123" s="5">
+        <v>7.4359909631311893E-3</v>
+      </c>
+      <c r="C123" s="5">
+        <v>8.1845512613654137E-3</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>43098</v>
       </c>
-      <c r="B124">
-        <v>-1.4770735055208206E-2</v>
-      </c>
-      <c r="C124">
-        <v>1.2635733932256699E-2</v>
+      <c r="B124" s="5">
+        <v>-1.5004783868789673E-2</v>
+      </c>
+      <c r="C124" s="5">
+        <v>1.3153723441064358E-2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>43111</v>
       </c>
-      <c r="B125">
-        <v>1.081149373203516E-2</v>
-      </c>
-      <c r="C125">
-        <v>3.4777007531374693E-3</v>
+      <c r="B125" s="5">
+        <v>1.0662166401743889E-2</v>
+      </c>
+      <c r="C125" s="5">
+        <v>3.615167923271656E-3</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>43125</v>
       </c>
-      <c r="B126">
-        <v>-6.6815555095672607E-2</v>
-      </c>
-      <c r="C126">
-        <v>2.5733863934874535E-2</v>
+      <c r="B126" s="5">
+        <v>-6.6564343869686127E-2</v>
+      </c>
+      <c r="C126" s="5">
+        <v>2.6042377576231956E-2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>43145</v>
       </c>
-      <c r="B127">
-        <v>9.6312481909990311E-3</v>
-      </c>
-      <c r="C127">
-        <v>3.2593146897852421E-3</v>
+      <c r="B127" s="5">
+        <v>9.4413356855511665E-3</v>
+      </c>
+      <c r="C127" s="5">
+        <v>3.4516847226768732E-3</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>43214</v>
       </c>
-      <c r="B128">
-        <v>-2.1646367385983467E-3</v>
-      </c>
-      <c r="C128">
-        <v>-2.8904205188155174E-2</v>
+      <c r="B128" s="5">
+        <v>-2.5628020521253347E-3</v>
+      </c>
+      <c r="C128" s="5">
+        <v>-2.8762400150299072E-2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>43231</v>
       </c>
-      <c r="B129">
-        <v>5.2424520254135132E-3</v>
-      </c>
-      <c r="C129">
-        <v>-8.3425920456647873E-3</v>
+      <c r="B129" s="5">
+        <v>4.9935057759284973E-3</v>
+      </c>
+      <c r="C129" s="5">
+        <v>-8.1911897286772728E-3</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>43252</v>
       </c>
-      <c r="B130">
-        <v>9.6833286806941032E-3</v>
-      </c>
-      <c r="C130">
-        <v>-1.0471917688846588E-2</v>
+      <c r="B130" s="5">
+        <v>9.4891013577580452E-3</v>
+      </c>
+      <c r="C130" s="5">
+        <v>-1.0436238721013069E-2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>43286</v>
       </c>
-      <c r="B131">
-        <v>-3.7142407149076462E-2</v>
-      </c>
-      <c r="C131">
-        <v>-6.9149024784564972E-2</v>
+      <c r="B131" s="5">
+        <v>-3.7724927067756653E-2</v>
+      </c>
+      <c r="C131" s="5">
+        <v>-6.902468204498291E-2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>43318</v>
       </c>
-      <c r="B132">
-        <v>-1.4849953353404999E-2</v>
-      </c>
-      <c r="C132">
-        <v>-5.369129404425621E-2</v>
+      <c r="B132" s="5">
+        <v>-1.5412034466862679E-2</v>
+      </c>
+      <c r="C132" s="5">
+        <v>-5.3561370819807053E-2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>43322</v>
       </c>
-      <c r="B133">
-        <v>-5.8333096094429493E-3</v>
-      </c>
-      <c r="C133">
-        <v>2.2893799468874931E-2</v>
+      <c r="B133" s="5">
+        <v>-5.8355932123959064E-3</v>
+      </c>
+      <c r="C133" s="5">
+        <v>2.3159239441156387E-2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>43388</v>
       </c>
-      <c r="B134">
-        <v>1.581115834414959E-2</v>
-      </c>
-      <c r="C134">
-        <v>-4.9713924527168274E-3</v>
+      <c r="B134" s="5">
+        <v>1.5453710220754147E-2</v>
+      </c>
+      <c r="C134" s="5">
+        <v>-4.7061927616596222E-3</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>43413</v>
       </c>
-      <c r="B135">
-        <v>1.214913185685873E-2</v>
-      </c>
-      <c r="C135">
-        <v>7.4877245351672173E-3</v>
+      <c r="B135" s="5">
+        <v>1.2062015011906624E-2</v>
+      </c>
+      <c r="C135" s="5">
+        <v>7.5880922377109528E-3</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>43480</v>
       </c>
-      <c r="B136">
-        <v>9.4390828162431717E-3</v>
-      </c>
-      <c r="C136">
-        <v>-1.7850194126367569E-2</v>
+      <c r="B136" s="5">
+        <v>9.226837195456028E-3</v>
+      </c>
+      <c r="C136" s="5">
+        <v>-1.7871979624032974E-2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>43488</v>
       </c>
-      <c r="B137">
-        <v>5.1775979809463024E-3</v>
-      </c>
-      <c r="C137">
-        <v>8.579733781516552E-3</v>
+      <c r="B137" s="5">
+        <v>5.0469557754695415E-3</v>
+      </c>
+      <c r="C137" s="5">
+        <v>8.7901204824447632E-3</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>43489</v>
       </c>
-      <c r="B138">
-        <v>1.1439950205385685E-2</v>
-      </c>
-      <c r="C138">
-        <v>-1.3793770922347903E-3</v>
+      <c r="B138" s="5">
+        <v>1.1266480199992657E-2</v>
+      </c>
+      <c r="C138" s="5">
+        <v>-1.2757573276758194E-3</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>43490</v>
       </c>
-      <c r="B139">
-        <v>4.1739712469279766E-3</v>
-      </c>
-      <c r="C139">
-        <v>2.536863787099719E-3</v>
+      <c r="B139" s="5">
+        <v>3.9810743182897568E-3</v>
+      </c>
+      <c r="C139" s="5">
+        <v>2.7569758240133524E-3</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>43509</v>
       </c>
-      <c r="B140">
-        <v>-2.6094394270330667E-3</v>
-      </c>
-      <c r="C140">
-        <v>-7.3225218802690506E-3</v>
+      <c r="B140" s="5">
+        <v>-2.8319198172539473E-3</v>
+      </c>
+      <c r="C140" s="5">
+        <v>-7.136455737054348E-3</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>43517</v>
       </c>
-      <c r="B141">
-        <v>4.897742997854948E-3</v>
-      </c>
-      <c r="C141">
-        <v>8.5775349289178848E-3</v>
+      <c r="B141" s="5">
+        <v>4.7531090676784515E-3</v>
+      </c>
+      <c r="C141" s="5">
+        <v>8.8053159415721893E-3</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>43579</v>
       </c>
-      <c r="B142">
-        <v>1.9621454179286957E-2</v>
-      </c>
-      <c r="C142">
-        <v>2.4899469688534737E-2</v>
+      <c r="B142" s="5">
+        <v>1.9599204882979393E-2</v>
+      </c>
+      <c r="C142" s="5">
+        <v>2.5073694065213203E-2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>43591</v>
       </c>
-      <c r="B143">
-        <v>-1.6172869130969048E-2</v>
-      </c>
-      <c r="C143">
-        <v>-3.4900709986686707E-2</v>
+      <c r="B143" s="5">
+        <v>-1.6587985679507256E-2</v>
+      </c>
+      <c r="C143" s="5">
+        <v>-3.4716077148914337E-2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>43600</v>
       </c>
-      <c r="B144">
-        <v>-1.2176763266324997E-3</v>
-      </c>
-      <c r="C144">
-        <v>-8.0483192577958107E-3</v>
+      <c r="B144" s="5">
+        <v>-1.4918122906237841E-3</v>
+      </c>
+      <c r="C144" s="5">
+        <v>-7.8196180984377861E-3</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>43602</v>
       </c>
-      <c r="B145">
-        <v>7.3796948418021202E-3</v>
-      </c>
-      <c r="C145">
-        <v>-1.2334569357335567E-2</v>
+      <c r="B145" s="5">
+        <v>7.2014392353594303E-3</v>
+      </c>
+      <c r="C145" s="5">
+        <v>-1.2320675887167454E-2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>43642</v>
       </c>
-      <c r="B146">
-        <v>1.9866041839122772E-2</v>
-      </c>
-      <c r="C146">
-        <v>-1.7825246322900057E-3</v>
+      <c r="B146" s="5">
+        <v>1.9571011886000633E-2</v>
+      </c>
+      <c r="C146" s="5">
+        <v>-1.5793647617101669E-3</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>43643</v>
       </c>
-      <c r="B147">
-        <v>7.6553290709853172E-3</v>
-      </c>
-      <c r="C147">
-        <v>-4.2146639316342771E-4</v>
+      <c r="B147" s="5">
+        <v>7.5269122608006001E-3</v>
+      </c>
+      <c r="C147" s="5">
+        <v>-3.3094975515268743E-4</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>43661</v>
       </c>
-      <c r="B148">
-        <v>3.0645465478301048E-2</v>
-      </c>
-      <c r="C148">
-        <v>1.7529692500829697E-2</v>
+      <c r="B148" s="5">
+        <v>3.0585996806621552E-2</v>
+      </c>
+      <c r="C148" s="5">
+        <v>1.7611283808946609E-2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>43669</v>
       </c>
-      <c r="B149">
-        <v>5.8440701104700565E-4</v>
-      </c>
-      <c r="C149">
-        <v>1.1135092936456203E-2</v>
+      <c r="B149" s="5">
+        <v>3.481116727925837E-4</v>
+      </c>
+      <c r="C149" s="5">
+        <v>1.1523289605975151E-2</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>43686</v>
       </c>
-      <c r="B150">
-        <v>8.8382679969072342E-3</v>
-      </c>
-      <c r="C150">
-        <v>-1.1252108961343765E-2</v>
+      <c r="B150" s="5">
+        <v>8.5569284856319427E-3</v>
+      </c>
+      <c r="C150" s="5">
+        <v>-1.1120752431452274E-2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>43692</v>
       </c>
-      <c r="B151">
-        <v>2.5538798421621323E-2</v>
-      </c>
-      <c r="C151">
-        <v>-1.254829578101635E-2</v>
+      <c r="B151" s="5">
+        <v>2.5352580472826958E-2</v>
+      </c>
+      <c r="C151" s="5">
+        <v>-1.2635554186999798E-2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>43703</v>
       </c>
-      <c r="B152">
-        <v>1.7482923343777657E-2</v>
-      </c>
-      <c r="C152">
-        <v>-1.5937626361846924E-2</v>
+      <c r="B152" s="5">
+        <v>1.7145168036222458E-2</v>
+      </c>
+      <c r="C152" s="5">
+        <v>-1.5831716358661652E-2</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>43714</v>
       </c>
-      <c r="B153">
-        <v>1.6761552542448044E-2</v>
-      </c>
-      <c r="C153">
-        <v>-9.0733254328370094E-3</v>
+      <c r="B153" s="5">
+        <v>1.6532048583030701E-2</v>
+      </c>
+      <c r="C153" s="5">
+        <v>-9.0124094858765602E-3</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>43719</v>
       </c>
-      <c r="B154">
-        <v>1.7717871814966202E-3</v>
-      </c>
-      <c r="C154">
-        <v>7.4127255938947201E-3</v>
+      <c r="B154" s="5">
+        <v>1.6409138916060328E-3</v>
+      </c>
+      <c r="C154" s="5">
+        <v>7.6289083808660507E-3</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>43724</v>
       </c>
-      <c r="B155">
-        <v>-6.2721055001020432E-3</v>
-      </c>
-      <c r="C155">
-        <v>-6.8565079709514976E-4</v>
+      <c r="B155" s="5">
+        <v>-6.4739766530692577E-3</v>
+      </c>
+      <c r="C155" s="5">
+        <v>-4.3217465281486511E-4</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>43725</v>
       </c>
-      <c r="B156">
-        <v>2.7535540983080864E-2</v>
-      </c>
-      <c r="C156">
-        <v>1.5071802772581577E-2</v>
+      <c r="B156" s="5">
+        <v>2.7409356087446213E-2</v>
+      </c>
+      <c r="C156" s="5">
+        <v>1.5219989232718945E-2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>43733</v>
       </c>
-      <c r="B157">
-        <v>-7.7627315185964108E-3</v>
-      </c>
-      <c r="C157">
-        <v>-1.2821987271308899E-2</v>
+      <c r="B157" s="5">
+        <v>-7.9598147422075272E-3</v>
+      </c>
+      <c r="C157" s="5">
+        <v>-1.2710009701550007E-2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>43755</v>
       </c>
-      <c r="B158">
-        <v>-5.0318683497607708E-3</v>
-      </c>
-      <c r="C158">
-        <v>-3.6073301453143358E-3</v>
+      <c r="B158" s="5">
+        <v>-5.2123935893177986E-3</v>
+      </c>
+      <c r="C158" s="5">
+        <v>-3.4260004758834839E-3</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>43774</v>
       </c>
-      <c r="B159">
-        <v>-4.1649818420410156E-2</v>
-      </c>
-      <c r="C159">
-        <v>-3.3018849790096283E-2</v>
+      <c r="B159" s="5">
+        <v>-4.1829582303762436E-2</v>
+      </c>
+      <c r="C159" s="5">
+        <v>-3.2979663461446762E-2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>43776</v>
       </c>
-      <c r="B160">
-        <v>3.3975471742451191E-3</v>
-      </c>
-      <c r="C160">
-        <v>8.2483692094683647E-3</v>
+      <c r="B160" s="5">
+        <v>3.2360947225242853E-3</v>
+      </c>
+      <c r="C160" s="5">
+        <v>8.4991324692964554E-3</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>43784</v>
       </c>
-      <c r="B161">
-        <v>-2.5340324267745018E-2</v>
-      </c>
-      <c r="C161">
-        <v>-2.036479115486145E-2</v>
+      <c r="B161" s="5">
+        <v>-2.5935463607311249E-2</v>
+      </c>
+      <c r="C161" s="5">
+        <v>-1.9743612036108971E-2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>43785</v>
       </c>
-      <c r="B162">
-        <v>-5.4199155420064926E-2</v>
-      </c>
-      <c r="C162">
-        <v>-4.3695710599422455E-2</v>
+      <c r="B162" s="5">
+        <v>-5.4510321468114853E-2</v>
+      </c>
+      <c r="C162" s="5">
+        <v>-4.3542839586734772E-2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>43796</v>
       </c>
-      <c r="B163">
-        <v>1.5212738886475563E-2</v>
-      </c>
-      <c r="C163">
-        <v>4.5126322656869888E-3</v>
+      <c r="B163" s="5">
+        <v>1.4993693679571152E-2</v>
+      </c>
+      <c r="C163" s="5">
+        <v>4.7227661125361919E-3</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>43805</v>
       </c>
-      <c r="B164">
-        <v>1.8772738054394722E-2</v>
-      </c>
-      <c r="C164">
-        <v>5.5756783112883568E-3</v>
+      <c r="B164" s="5">
+        <v>1.854720339179039E-2</v>
+      </c>
+      <c r="C164" s="5">
+        <v>5.7837795466184616E-3</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>43815</v>
       </c>
-      <c r="B165">
-        <v>2.8210889548063278E-2</v>
-      </c>
-      <c r="C165">
-        <v>2.8335992246866226E-3</v>
+      <c r="B165" s="5">
+        <v>2.8063440695405006E-2</v>
+      </c>
+      <c r="C165" s="5">
+        <v>2.8687163721770048E-3</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>43819</v>
       </c>
-      <c r="B166">
-        <v>-2.2085085511207581E-2</v>
-      </c>
-      <c r="C166">
-        <v>-1.6586638987064362E-2</v>
+      <c r="B166" s="5">
+        <v>-2.2313037887215614E-2</v>
+      </c>
+      <c r="C166" s="5">
+        <v>-1.6395309939980507E-2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>43823</v>
       </c>
-      <c r="B167">
-        <v>-2.6684828102588654E-2</v>
-      </c>
-      <c r="C167">
-        <v>4.8838304355740547E-3</v>
+      <c r="B167" s="5">
+        <v>-2.6825074106454849E-2</v>
+      </c>
+      <c r="C167" s="5">
+        <v>5.2273697219789028E-3</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>43829</v>
       </c>
-      <c r="B168">
-        <v>8.8839521631598473E-3</v>
-      </c>
-      <c r="C168">
-        <v>4.3867533095180988E-3</v>
+      <c r="B168" s="5">
+        <v>8.7588001042604446E-3</v>
+      </c>
+      <c r="C168" s="5">
+        <v>4.5148110948503017E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2893,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247F857-A800-5A43-B937-0884E666A61E}">
   <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2915,10 +2931,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-4.21931818127632E-2</v>
+        <v>-6.0988212935626498E-3</v>
       </c>
       <c r="C2">
-        <v>5.9230080805718899E-2</v>
+        <v>1.35726640000939E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2926,10 +2942,10 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-2.32390430755913E-3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>8.9935325086116808E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2937,10 +2953,10 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1.0498593561351299E-2</v>
+        <v>-1.1316559277474899E-2</v>
       </c>
       <c r="C4">
-        <v>-6.0699827969074201E-2</v>
+        <v>-6.0385141521692297E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2970,10 +2986,10 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.7948960922658402E-2</v>
+        <v>5.7424968108534799E-2</v>
       </c>
       <c r="C7">
-        <v>-1.9783664494752901E-2</v>
+        <v>-1.9721116870641701E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2992,10 +3008,10 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5.8885112404823303E-2</v>
+        <v>5.8718010783195503E-2</v>
       </c>
       <c r="C9">
-        <v>-7.06205004826188E-3</v>
+        <v>-7.2975638322532203E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3003,10 +3019,10 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6.9297485053539304E-2</v>
+        <v>6.8905651569366497E-2</v>
       </c>
       <c r="C10">
-        <v>-2.8844246640801399E-2</v>
+        <v>-2.9076982289552699E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3014,10 +3030,10 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1.1883676052093501E-2</v>
+        <v>-1.19712064042687E-2</v>
       </c>
       <c r="C11">
-        <v>3.6686293780803701E-2</v>
+        <v>3.7246581166982699E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3025,10 +3041,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>8.2077197730541201E-2</v>
+        <v>8.0893266946077305E-2</v>
       </c>
       <c r="C12">
-        <v>-5.5509487167000798E-2</v>
+        <v>-5.5236512795090703E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3036,10 +3052,10 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>6.5845990553498296E-2</v>
+        <v>6.5615468658506898E-2</v>
       </c>
       <c r="C13">
-        <v>8.8047163560986505E-2</v>
+        <v>8.89407508075237E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3058,10 +3074,10 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>9.5003020949661704E-2</v>
+        <v>9.3475186266004998E-2</v>
       </c>
       <c r="C15">
-        <v>-9.38461389159784E-2</v>
+        <v>-9.3599775806069402E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3069,10 +3085,10 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>8.1876110285520595E-2</v>
+        <v>8.0478046089410796E-2</v>
       </c>
       <c r="C16">
-        <v>-0.120487904176116</v>
+        <v>-0.120721589773893</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3080,10 +3096,10 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.19061656668782201</v>
+        <v>0.18951511941850199</v>
       </c>
       <c r="C17">
-        <v>-8.6835157126188306E-2</v>
+        <v>-8.7537832558155101E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3091,10 +3107,10 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>8.6669716984033602E-3</v>
+        <v>9.7158458083867992E-3</v>
       </c>
       <c r="C18">
-        <v>9.2105612158775302E-2</v>
+        <v>9.1750867664813995E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3102,10 +3118,10 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.41471533477306399</v>
+        <v>-0.41413597762584697</v>
       </c>
       <c r="C19">
-        <v>0.14203621447086301</v>
+        <v>0.14520425908267501</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3113,10 +3129,10 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-2.8552030678838498E-2</v>
+        <v>-2.88709634914994E-2</v>
       </c>
       <c r="C20">
-        <v>0.108155980706215</v>
+        <v>0.109887540340424</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3124,10 +3140,10 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.109844662249088</v>
+        <v>-0.110005028545856</v>
       </c>
       <c r="C21">
-        <v>4.3024044483900098E-2</v>
+        <v>4.4276926666498198E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3135,10 +3151,10 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>4.5005027204752003E-3</v>
+        <v>4.3003777973353897E-3</v>
       </c>
       <c r="C22">
-        <v>6.0130238533019999E-2</v>
+        <v>6.0986015945673003E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3146,10 +3162,10 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.31633117794990501</v>
+        <v>-0.316350847482681</v>
       </c>
       <c r="C23">
-        <v>0.153510987758636</v>
+        <v>0.15733566880226099</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3157,10 +3173,10 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-4.42297421395779E-2</v>
+        <v>-4.4327914714813198E-2</v>
       </c>
       <c r="C24">
-        <v>1.1799820698797699E-2</v>
+        <v>1.2255746871233E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3168,10 +3184,10 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>1.6122085973620401E-2</v>
+        <v>1.58247165381908E-2</v>
       </c>
       <c r="C25">
-        <v>0.12420606613159201</v>
+        <v>0.125846922397614</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3179,10 +3195,10 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.43013992905616799</v>
+        <v>0.43022775650024397</v>
       </c>
       <c r="C26">
-        <v>0.18824467062950101</v>
+        <v>0.187942460179329</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3201,10 +3217,10 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1.96263343095779E-2</v>
+        <v>-1.9801478832960101E-2</v>
       </c>
       <c r="C28">
-        <v>4.3194059282541303E-2</v>
+        <v>4.3983645737171201E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3212,10 +3228,10 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.127358764410019</v>
+        <v>-0.12781141698360399</v>
       </c>
       <c r="C29">
-        <v>-0.165627181529999</v>
+        <v>-0.16629338264465299</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3223,10 +3239,10 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.18684608489275001</v>
+        <v>-0.18738582730293299</v>
       </c>
       <c r="C30">
-        <v>-0.279235750436783</v>
+        <v>-0.28074851632118197</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -3234,10 +3250,10 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>9.13836434483528E-2</v>
+        <v>9.1128841042518602E-2</v>
       </c>
       <c r="C31">
-        <v>-0.18215322121977801</v>
+        <v>-0.18452209793031199</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3245,10 +3261,10 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-5.0930168479681001E-2</v>
+        <v>-5.1094476133584997E-2</v>
       </c>
       <c r="C32">
-        <v>1.20376339182258E-2</v>
+        <v>1.26733900979161E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3267,10 +3283,10 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-3.5663161426782601E-2</v>
+        <v>-3.5961601883173003E-2</v>
       </c>
       <c r="C34">
-        <v>6.89289998263121E-3</v>
+        <v>7.5026531703770204E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3300,10 +3316,10 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-2.4881608784198799E-2</v>
+        <v>-2.4856287986040101E-2</v>
       </c>
       <c r="C37">
-        <v>8.7634231895208393E-3</v>
+        <v>8.9404992759227805E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3333,10 +3349,10 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>9.8634958267211897E-3</v>
+        <v>9.5187891274690593E-3</v>
       </c>
       <c r="C40">
-        <v>-9.4457538798451406E-3</v>
+        <v>-9.2058731243014301E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3366,10 +3382,10 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>3.9109636098146397E-2</v>
+        <v>3.8561228662729298E-2</v>
       </c>
       <c r="C43">
-        <v>-4.3055415153503397E-2</v>
+        <v>-4.31074313819408E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3388,10 +3404,10 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-8.0394014716148404E-2</v>
+        <v>-8.0616407096385997E-2</v>
       </c>
       <c r="C45">
-        <v>-5.2774581126868699E-3</v>
+        <v>-4.6627740375697604E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3399,10 +3415,10 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>5.6597034446895102E-2</v>
+        <v>5.5772190913557999E-2</v>
       </c>
       <c r="C46">
-        <v>-2.6014990173280201E-2</v>
+        <v>-2.5644094683229899E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3432,10 +3448,10 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>-5.7941582053899798E-4</v>
+        <v>-8.0620311200618701E-4</v>
       </c>
       <c r="C49">
-        <v>3.9213273208588403E-2</v>
+        <v>3.99096442852169E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3443,10 +3459,10 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>-6.6940127871930599E-3</v>
+        <v>-7.0351194590330098E-3</v>
       </c>
       <c r="C50">
-        <v>-6.4639508724212605E-2</v>
+        <v>-6.4949437975883498E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3465,10 +3481,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>1.01722721010447E-2</v>
+        <v>9.8898401483893394E-3</v>
       </c>
       <c r="C52">
-        <v>-1.37353641912341E-2</v>
+        <v>-1.3634688220918199E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3487,10 +3503,10 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>-1.84743641875684E-3</v>
+        <v>-2.1020416170358701E-3</v>
       </c>
       <c r="C54">
-        <v>-2.0813988521695099E-2</v>
+        <v>-2.0749434828758202E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3498,10 +3514,10 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>0.14001031266525399</v>
+        <v>0.13925216672942001</v>
       </c>
       <c r="C55">
-        <v>0.163808364421129</v>
+        <v>0.165721105411649</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3509,10 +3525,10 @@
         <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.17513702763244501</v>
+        <v>-0.175010385457426</v>
       </c>
       <c r="C56">
-        <v>6.6758111119270297E-2</v>
+        <v>6.8293660879135104E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3520,10 +3536,10 @@
         <v>65</v>
       </c>
       <c r="B57">
-        <v>5.9794498607516303E-2</v>
+        <v>5.9444708749651902E-2</v>
       </c>
       <c r="C57">
-        <v>-2.5876830797642501E-2</v>
+        <v>-2.6140078436583301E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3531,10 +3547,10 @@
         <v>66</v>
       </c>
       <c r="B58">
-        <v>6.8167343735694899E-2</v>
+        <v>6.8084225058555603E-2</v>
       </c>
       <c r="C58">
-        <v>-3.4010954201221501E-2</v>
+        <v>-3.4770138561725603E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3542,10 +3558,10 @@
         <v>67</v>
       </c>
       <c r="B59">
-        <v>4.6637427061796202E-2</v>
+        <v>4.7520689666271203E-2</v>
       </c>
       <c r="C59">
-        <v>0.113826863467693</v>
+        <v>0.11379920691251801</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3553,10 +3569,10 @@
         <v>68</v>
       </c>
       <c r="B60">
-        <v>3.84342158213258E-2</v>
+        <v>3.7949529476463802E-2</v>
       </c>
       <c r="C60">
-        <v>-1.2435255106538499E-2</v>
+        <v>-1.22524679172784E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3564,10 +3580,10 @@
         <v>69</v>
       </c>
       <c r="B61">
-        <v>0.134537549165543</v>
+        <v>0.132908348401543</v>
       </c>
       <c r="C61">
-        <v>-0.117935288697481</v>
+        <v>-0.11803593672812</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3575,10 +3591,10 @@
         <v>70</v>
       </c>
       <c r="B62">
-        <v>2.5669770315289501E-2</v>
+        <v>2.6392960920929898E-2</v>
       </c>
       <c r="C62">
-        <v>0.11550959199667001</v>
+        <v>0.11579702794551799</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3586,10 +3602,10 @@
         <v>71</v>
       </c>
       <c r="B63">
-        <v>0.10872158408165</v>
+        <v>0.10821484774351101</v>
       </c>
       <c r="C63">
-        <v>-9.2842252925038303E-3</v>
+        <v>-9.3717677518725395E-3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3597,10 +3613,10 @@
         <v>72</v>
       </c>
       <c r="B64">
-        <v>-8.1334952265024203E-3</v>
+        <v>-8.3960499614477192E-3</v>
       </c>
       <c r="C64">
-        <v>4.9555366858839997E-3</v>
+        <v>5.3521632216870802E-3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3630,10 +3646,10 @@
         <v>75</v>
       </c>
       <c r="B67">
-        <v>2.7034892700612502E-3</v>
+        <v>2.3855590261518999E-3</v>
       </c>
       <c r="C67">
-        <v>3.5956110805273098E-2</v>
+        <v>3.6717491224408101E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3663,10 +3679,10 @@
         <v>78</v>
       </c>
       <c r="B70">
-        <v>2.65691429376602E-3</v>
+        <v>2.5821877643466E-3</v>
       </c>
       <c r="C70">
-        <v>5.1014777272939699E-3</v>
+        <v>5.1674945279955899E-3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3674,10 +3690,10 @@
         <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.13025991618633301</v>
+        <v>-0.13024602830410001</v>
       </c>
       <c r="C71">
-        <v>-1.82699610013515E-3</v>
+        <v>-1.1782138608396101E-3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3685,10 +3701,10 @@
         <v>80</v>
       </c>
       <c r="B72">
-        <v>-3.28785553574562E-2</v>
+        <v>-3.2966203987598398E-2</v>
       </c>
       <c r="C72">
-        <v>3.6658691242337201E-3</v>
+        <v>3.9647403173148597E-3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3696,10 +3712,10 @@
         <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.17251114547252699</v>
+        <v>-0.172900766134262</v>
       </c>
       <c r="C73">
-        <v>-5.8679390698671299E-2</v>
+        <v>-5.7953827083110802E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3707,10 +3723,10 @@
         <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.13569571450352699</v>
+        <v>-0.13615945354104</v>
       </c>
       <c r="C74">
-        <v>-9.6973769366741194E-2</v>
+        <v>-9.6845358610153198E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3718,10 +3734,10 @@
         <v>83</v>
       </c>
       <c r="B75">
-        <v>-1.24619454145432E-2</v>
+        <v>-1.26213431358337E-2</v>
       </c>
       <c r="C75">
-        <v>-1.09591856598854E-2</v>
+        <v>-1.0852565057575699E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3751,10 +3767,10 @@
         <v>86</v>
       </c>
       <c r="B78">
-        <v>8.0780088901519793E-3</v>
+        <v>7.9144155606627499E-3</v>
       </c>
       <c r="C78">
-        <v>1.00471470504999E-2</v>
+        <v>1.0295598767697801E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3762,10 +3778,10 @@
         <v>87</v>
       </c>
       <c r="B79">
-        <v>3.5344034433364903E-2</v>
+        <v>3.5088360309600802E-2</v>
       </c>
       <c r="C79">
-        <v>7.8147947788238508E-3</v>
+        <v>8.0183250829577394E-3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3784,10 +3800,10 @@
         <v>89</v>
       </c>
       <c r="B81">
-        <v>-3.6188021302223199E-2</v>
+        <v>-3.6306787282228498E-2</v>
       </c>
       <c r="C81">
-        <v>4.8714992590248602E-3</v>
+        <v>5.2473614923656004E-3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -3828,10 +3844,10 @@
         <v>93</v>
       </c>
       <c r="B85">
-        <v>1.6084698960184999E-2</v>
+        <v>1.58196855336428E-2</v>
       </c>
       <c r="C85">
-        <v>-9.6957869827747293E-3</v>
+        <v>-9.5958961173892004E-3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -3850,10 +3866,10 @@
         <v>95</v>
       </c>
       <c r="B87">
-        <v>8.54661390185356E-2</v>
+        <v>8.5622787475585896E-2</v>
       </c>
       <c r="C87">
-        <v>0.113514043390751</v>
+        <v>0.114140182733536</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -3861,10 +3877,10 @@
         <v>96</v>
       </c>
       <c r="B88">
-        <v>-1.7394516617059701E-2</v>
+        <v>-1.74763314425945E-2</v>
       </c>
       <c r="C88">
-        <v>8.4275752305984497E-3</v>
+        <v>8.7042981758713705E-3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -3894,10 +3910,10 @@
         <v>99</v>
       </c>
       <c r="B91">
-        <v>7.4631394818425196E-3</v>
+        <v>7.4459481984376899E-3</v>
       </c>
       <c r="C91">
-        <v>3.3526886254548999E-2</v>
+        <v>3.3872980624437297E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -3916,10 +3932,10 @@
         <v>101</v>
       </c>
       <c r="B93">
-        <v>5.5291704833507503E-2</v>
+        <v>5.5075988173484802E-2</v>
       </c>
       <c r="C93">
-        <v>1.26937758177519E-2</v>
+        <v>1.27758383750916E-2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -3927,10 +3943,10 @@
         <v>102</v>
       </c>
       <c r="B94">
-        <v>6.6653378307819394E-2</v>
+        <v>6.65770694613457E-2</v>
       </c>
       <c r="C94">
-        <v>2.7171695604920401E-2</v>
+        <v>2.7175780385732699E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -3938,10 +3954,10 @@
         <v>103</v>
       </c>
       <c r="B95">
-        <v>7.9805813729763003E-2</v>
+        <v>7.9950608313083593E-2</v>
       </c>
       <c r="C95">
-        <v>7.2258777916431399E-2</v>
+        <v>7.2438627481460599E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -3949,10 +3965,10 @@
         <v>104</v>
       </c>
       <c r="B96">
-        <v>5.7701981859281702E-4</v>
+        <v>3.6898039979860197E-4</v>
       </c>
       <c r="C96">
-        <v>-1.9118862226605401E-2</v>
+        <v>-1.9116239622235302E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -3960,10 +3976,10 @@
         <v>105</v>
       </c>
       <c r="B97">
-        <v>6.3027483411133298E-3</v>
+        <v>6.1422381550073598E-3</v>
       </c>
       <c r="C97">
-        <v>1.0203187353909E-2</v>
+        <v>1.0454642586410001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -3971,10 +3987,10 @@
         <v>106</v>
       </c>
       <c r="B98">
-        <v>5.0634965300559998E-3</v>
+        <v>4.2165704071521802E-3</v>
       </c>
       <c r="C98">
-        <v>-7.6830243691801997E-2</v>
+        <v>-7.6752305030822796E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -3982,10 +3998,10 @@
         <v>107</v>
       </c>
       <c r="B99">
-        <v>8.8853344321250902E-2</v>
+        <v>8.8506013154983507E-2</v>
       </c>
       <c r="C99">
-        <v>2.5948207825422301E-2</v>
+        <v>2.6141570881009098E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -3993,10 +4009,10 @@
         <v>108</v>
       </c>
       <c r="B100">
-        <v>-3.4154701977968202E-2</v>
+        <v>-3.4361314028501497E-2</v>
       </c>
       <c r="C100">
-        <v>-2.3577107116579999E-2</v>
+        <v>-2.3437626659870099E-2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -4026,10 +4042,10 @@
         <v>111</v>
       </c>
       <c r="B103">
-        <v>3.81690301001072E-2</v>
+        <v>3.7705847993493101E-2</v>
       </c>
       <c r="C103">
-        <v>-2.8200655244290801E-2</v>
+        <v>-2.8192573226988302E-2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -4059,10 +4075,10 @@
         <v>114</v>
       </c>
       <c r="B106">
-        <v>-0.13831585645675701</v>
+        <v>-0.138727471232414</v>
       </c>
       <c r="C106">
-        <v>0.113074816763401</v>
+        <v>0.11559136956930199</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -4070,10 +4086,10 @@
         <v>115</v>
       </c>
       <c r="B107">
-        <v>7.3374040424823803E-2</v>
+        <v>7.3092617094516796E-2</v>
       </c>
       <c r="C107">
-        <v>-5.2665495313703996E-3</v>
+        <v>-5.4116444662213299E-3</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -4081,10 +4097,10 @@
         <v>116</v>
       </c>
       <c r="B108">
-        <v>-0.219679981470108</v>
+        <v>-0.22004684805870101</v>
       </c>
       <c r="C108">
-        <v>-9.5166057348251301E-2</v>
+        <v>-9.4627752900123596E-2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -4092,10 +4108,10 @@
         <v>117</v>
       </c>
       <c r="B109">
-        <v>-0.11513095162808901</v>
+        <v>-0.115552328526974</v>
       </c>
       <c r="C109">
-        <v>-4.77821882814169E-2</v>
+        <v>-4.7226702794432598E-2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -4103,10 +4119,10 @@
         <v>118</v>
       </c>
       <c r="B110">
-        <v>-7.6668478548526806E-2</v>
+        <v>-7.6620221138000502E-2</v>
       </c>
       <c r="C110">
-        <v>8.8043324649334006E-3</v>
+        <v>9.2494329437613505E-3</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -4125,10 +4141,10 @@
         <v>120</v>
       </c>
       <c r="B112">
-        <v>0.11202087253332101</v>
+        <v>0.11158059164881701</v>
       </c>
       <c r="C112">
-        <v>2.5539768161252099E-2</v>
+        <v>2.5697520235553401E-2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -4136,10 +4152,10 @@
         <v>121</v>
       </c>
       <c r="B113">
-        <v>5.06558436900377E-2</v>
+        <v>5.0152411684393897E-2</v>
       </c>
       <c r="C113">
-        <v>-8.0290585756301897E-3</v>
+        <v>-7.8286975622177107E-3</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -4147,10 +4163,10 @@
         <v>122</v>
       </c>
       <c r="B114">
-        <v>-7.6338142156600994E-2</v>
+        <v>-7.6553814113140106E-2</v>
       </c>
       <c r="C114">
-        <v>-4.29050326347351E-2</v>
+        <v>-4.2739003896713298E-2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -4158,10 +4174,10 @@
         <v>123</v>
       </c>
       <c r="B115">
-        <v>6.73500150442123E-2</v>
+        <v>6.7162930965423598E-2</v>
       </c>
       <c r="C115">
-        <v>1.5753024490550199E-3</v>
+        <v>1.42453133594245E-3</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -4180,10 +4196,10 @@
         <v>125</v>
       </c>
       <c r="B117">
-        <v>3.7229251116514199E-2</v>
+        <v>3.7024185061454801E-2</v>
       </c>
       <c r="C117">
-        <v>1.7196008702740099E-3</v>
+        <v>1.7558136023581E-3</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -4191,10 +4207,10 @@
         <v>126</v>
       </c>
       <c r="B118">
-        <v>2.67454367130995E-2</v>
+        <v>2.6226409710943699E-2</v>
       </c>
       <c r="C118">
-        <v>1.01748364977539E-2</v>
+        <v>1.0712702292948999E-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -4202,10 +4218,10 @@
         <v>127</v>
       </c>
       <c r="B119">
-        <v>4.5465695438906599E-4</v>
+        <v>2.3993302602320899E-4</v>
       </c>
       <c r="C119">
-        <v>-6.0514133656397505E-4</v>
+        <v>-3.7068157689645903E-4</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -4213,10 +4229,10 @@
         <v>128</v>
       </c>
       <c r="B120">
-        <v>7.7878907322883597E-3</v>
+        <v>7.6877335086464899E-3</v>
       </c>
       <c r="C120">
-        <v>2.15082755312324E-3</v>
+        <v>2.2290158085525001E-3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -4257,10 +4273,10 @@
         <v>132</v>
       </c>
       <c r="B124">
-        <v>-6.1257771449163599E-4</v>
+        <v>-8.3079957403242599E-4</v>
       </c>
       <c r="C124">
-        <v>-9.62784793227911E-3</v>
+        <v>-9.4914315268397297E-3</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -4290,10 +4306,10 @@
         <v>135</v>
       </c>
       <c r="B127">
-        <v>7.7846641652286001E-3</v>
+        <v>7.6239933259785201E-3</v>
       </c>
       <c r="C127">
-        <v>5.0692642107605899E-3</v>
+        <v>5.2568865939974802E-3</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -4312,10 +4328,10 @@
         <v>137</v>
       </c>
       <c r="B129">
-        <v>1.0255717672407599E-2</v>
+        <v>1.0134349577128899E-2</v>
       </c>
       <c r="C129">
-        <v>3.2126091420650503E-2</v>
+        <v>3.25589664280415E-2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -4323,10 +4339,10 @@
         <v>138</v>
       </c>
       <c r="B130">
-        <v>-2.6280350983142901E-2</v>
+        <v>-2.6461938396096198E-2</v>
       </c>
       <c r="C130">
-        <v>-1.4383293688297299E-2</v>
+        <v>-1.42098255455494E-2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -4356,10 +4372,10 @@
         <v>141</v>
       </c>
       <c r="B133">
-        <v>9.5919631421565992E-3</v>
+        <v>9.3039497733116098E-3</v>
       </c>
       <c r="C133">
-        <v>-3.0839152634143802E-2</v>
+        <v>-3.0923845246434201E-2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -4367,10 +4383,10 @@
         <v>142</v>
       </c>
       <c r="B134">
-        <v>7.8487331047654204E-3</v>
+        <v>7.6819155365228696E-3</v>
       </c>
       <c r="C134">
-        <v>1.08286943286657E-2</v>
+        <v>1.10885668545961E-2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -4389,10 +4405,10 @@
         <v>144</v>
       </c>
       <c r="B136">
-        <v>5.5318587692454501E-4</v>
+        <v>3.0866582528687997E-4</v>
       </c>
       <c r="C136">
-        <v>-1.00676873698831E-2</v>
+        <v>-9.9078007042408007E-3</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -4400,10 +4416,10 @@
         <v>145</v>
       </c>
       <c r="B137">
-        <v>6.7988964729011102E-3</v>
+        <v>6.8188682198524501E-3</v>
       </c>
       <c r="C137">
-        <v>2.2115288302302399E-2</v>
+        <v>2.23000850528479E-2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -4422,10 +4438,10 @@
         <v>147</v>
       </c>
       <c r="B139">
-        <v>2.8265596483834099E-4</v>
+        <v>1.31185472127981E-4</v>
       </c>
       <c r="C139">
-        <v>1.6128772869706199E-2</v>
+        <v>1.6475884243845901E-2</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -4433,10 +4449,10 @@
         <v>148</v>
       </c>
       <c r="B140">
-        <v>-7.1992487646639304E-3</v>
+        <v>-7.56879290565848E-3</v>
       </c>
       <c r="C140">
-        <v>2.0624366588890601E-2</v>
+        <v>2.1338274702429799E-2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -4444,10 +4460,10 @@
         <v>149</v>
       </c>
       <c r="B141">
-        <v>-5.6004061363637399E-2</v>
+        <v>-5.5902177467942203E-2</v>
       </c>
       <c r="C141">
-        <v>2.9211564688012E-2</v>
+        <v>2.9657545499503599E-2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -4455,10 +4471,10 @@
         <v>150</v>
       </c>
       <c r="B142">
-        <v>9.6312481909990293E-3</v>
+        <v>9.44133568555117E-3</v>
       </c>
       <c r="C142">
-        <v>3.2593146897852399E-3</v>
+        <v>3.4516847226768702E-3</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -4477,10 +4493,10 @@
         <v>152</v>
       </c>
       <c r="B144">
-        <v>-2.1646367385983502E-3</v>
+        <v>-2.56280205212533E-3</v>
       </c>
       <c r="C144">
-        <v>-2.8904205188155199E-2</v>
+        <v>-2.87624001502991E-2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -4488,10 +4504,10 @@
         <v>153</v>
       </c>
       <c r="B145">
-        <v>5.2424520254135097E-3</v>
+        <v>4.9935057759284999E-3</v>
       </c>
       <c r="C145">
-        <v>-8.3425920456647908E-3</v>
+        <v>-8.1911897286772693E-3</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -4499,10 +4515,10 @@
         <v>154</v>
       </c>
       <c r="B146">
-        <v>9.6833286806940998E-3</v>
+        <v>9.4891013577580504E-3</v>
       </c>
       <c r="C146">
-        <v>-1.04719176888466E-2</v>
+        <v>-1.04362387210131E-2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -4510,10 +4526,10 @@
         <v>155</v>
       </c>
       <c r="B147">
-        <v>-3.7142407149076503E-2</v>
+        <v>-3.7724927067756701E-2</v>
       </c>
       <c r="C147">
-        <v>-6.9149024784565E-2</v>
+        <v>-6.9024682044982896E-2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -4521,10 +4537,10 @@
         <v>156</v>
       </c>
       <c r="B148">
-        <v>-2.06832629628479E-2</v>
+        <v>-2.1247627679258599E-2</v>
       </c>
       <c r="C148">
-        <v>-3.07974945753813E-2</v>
+        <v>-3.04021313786507E-2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -4543,10 +4559,10 @@
         <v>158</v>
       </c>
       <c r="B150">
-        <v>1.58111583441496E-2</v>
+        <v>1.54537102207541E-2</v>
       </c>
       <c r="C150">
-        <v>-4.97139245271683E-3</v>
+        <v>-4.7061927616596196E-3</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -4554,10 +4570,10 @@
         <v>159</v>
       </c>
       <c r="B151">
-        <v>1.2149131856858701E-2</v>
+        <v>1.20620150119066E-2</v>
       </c>
       <c r="C151">
-        <v>7.4877245351672199E-3</v>
+        <v>7.5880922377109502E-3</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -4576,10 +4592,10 @@
         <v>161</v>
       </c>
       <c r="B153">
-        <v>3.0230602249503101E-2</v>
+        <v>2.9521347489208E-2</v>
       </c>
       <c r="C153">
-        <v>-8.11297364998609E-3</v>
+        <v>-7.6006406452506798E-3</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -4587,10 +4603,10 @@
         <v>162</v>
       </c>
       <c r="B154">
-        <v>2.28830357082188E-3</v>
+        <v>1.9211892504244999E-3</v>
       </c>
       <c r="C154">
-        <v>1.2550130486488299E-3</v>
+        <v>1.66886020451784E-3</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -4609,10 +4625,10 @@
         <v>164</v>
       </c>
       <c r="B156">
-        <v>1.9621454179286998E-2</v>
+        <v>1.95992048829794E-2</v>
       </c>
       <c r="C156">
-        <v>2.4899469688534698E-2</v>
+        <v>2.50736940652132E-2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -4620,10 +4636,10 @@
         <v>165</v>
       </c>
       <c r="B157">
-        <v>-1.0010850615799399E-2</v>
+        <v>-1.0878358734771601E-2</v>
       </c>
       <c r="C157">
-        <v>-5.5283598601818099E-2</v>
+        <v>-5.4856371134519598E-2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -4631,10 +4647,10 @@
         <v>166</v>
       </c>
       <c r="B158">
-        <v>2.75213709101081E-2</v>
+        <v>2.7097924146801199E-2</v>
       </c>
       <c r="C158">
-        <v>-2.2039910254534299E-3</v>
+        <v>-1.91031451686285E-3</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -4642,10 +4658,10 @@
         <v>167</v>
       </c>
       <c r="B159">
-        <v>3.1229872489348099E-2</v>
+        <v>3.0934108479414101E-2</v>
       </c>
       <c r="C159">
-        <v>2.86647854372859E-2</v>
+        <v>2.9134573414921799E-2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -4653,10 +4669,10 @@
         <v>168</v>
       </c>
       <c r="B160">
-        <v>5.18599897623062E-2</v>
+        <v>5.10546769946814E-2</v>
       </c>
       <c r="C160">
-        <v>-3.9738031104206997E-2</v>
+        <v>-3.9588022977113703E-2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -4664,10 +4680,10 @@
         <v>169</v>
       </c>
       <c r="B161">
-        <v>3.2034043688327102E-2</v>
+        <v>3.11485271668062E-2</v>
       </c>
       <c r="C161">
-        <v>-9.6435134764760706E-5</v>
+        <v>6.9430377334356297E-4</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -4675,10 +4691,10 @@
         <v>170</v>
       </c>
       <c r="B162">
-        <v>-5.0318683497607699E-3</v>
+        <v>-5.2123935893178003E-3</v>
       </c>
       <c r="C162">
-        <v>-3.6073301453143402E-3</v>
+        <v>-3.42600047588348E-3</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -4686,10 +4702,10 @@
         <v>171</v>
       </c>
       <c r="B163">
-        <v>-0.102579012047499</v>
+        <v>-0.104045578977093</v>
       </c>
       <c r="C163">
-        <v>-8.4318350069224807E-2</v>
+        <v>-8.3044216502457899E-2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -4697,10 +4713,10 @@
         <v>172</v>
       </c>
       <c r="B164">
-        <v>7.0976661518216098E-3</v>
+        <v>6.2313321977853801E-3</v>
       </c>
       <c r="C164">
-        <v>1.0932222940027701E-3</v>
+        <v>1.9993667956441602E-3</v>
       </c>
     </row>
   </sheetData>
